--- a/similarities/split_global/harmonic_similarity_timestamps_126.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_126.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,94 +484,112 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:00:13.120000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:08.240000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+          <t>('0:00:01.014823', '0:00:12.241493')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -581,37 +599,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:13.760000')]</t>
+          <t>('0:00:43.540000', '0:01:00')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:04:21.828000', '0:04:35.800000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=43.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -620,562 +638,572 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:26.040000', '0:00:58.880000')]</t>
+          <t>('0:00:06.774988', '0:00:12.022698')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:26.200000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=26.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>jaah_36</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'G:min', 'D']]</t>
+          <t>['E', 'A:7', 'E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'D#:min/F#', 'A#:maj/F']]</t>
+          <t>['G', 'C:7', 'G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:04.737522', '0:02:11.471309')]</t>
+          <t>('0:00:18.719002', '0:00:29.771700')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:14.340000', '0:01:16.240000')]</t>
+          <t>('0:00:02.230000', '0:00:07.630000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=124.737522']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=18.719002</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=74.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=2.23</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:7', 'F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:33.840000', '0:00:36.480000'), ('0:00:08.540000', '0:00:14.080000'), ('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:11.510000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:14.360000', '0:00:19.220000'), ('0:00:01.540000', '0:00:06.680000'), ('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:00:41.030000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=33.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=11.51</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=14.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=41.03</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['G:7', 'C', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:42.560000', '0:00:48.720000')]</t>
+          <t>('0:01:00.006734', '0:01:08.830317')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:30.080000', '0:01:42')]</t>
+          <t>('0:00:57.600000', '0:01:00.720000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=42.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=60.006734</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=90.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=57.6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.920000'), ('0:01:56.660000', '0:02:01.420000')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:08.300000', '0:00:12.960000')]</t>
+          <t>('0:00:01.640000', '0:00:10.360000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:16.853782')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:02.500000', '0:00:26.200000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['A:7', 'D:maj', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min'], ['A#:7', 'D#', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:24', '0:01:30.840000'), ('0:00:28.800000', '0:00:36.860000'), ('0:00:13.740000', '0:00:22.560000'), ('0:00:41.840000', '0:00:48.280000'), ('0:00:39.800000', '0:00:45.400000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:23.300000', '0:00:29.360000'), ('0:00:07.620000', '0:00:11.120000'), ('0:00:12.280000', '0:00:19.740000'), ('0:00:36.300000', '0:00:38.620000'), ('0:00:41.080000', '0:00:42.940000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=28.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=41.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=39.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=7.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=36.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.08']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:00:00.866546', '0:00:12.917702')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:05.734000')]</t>
+          <t>('0:01:43.520929', '0:01:48.664149')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.180000', '0:00:06.140000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:15.530000', '0:00:16.900000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:7', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000'), ('0:01:20.200000', '0:01:26.860000')]</t>
+          <t>('0:00:06.940000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:06.300000', '0:00:14.360000'), ('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:01:30.128000', '0:01:39.300000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
+          <t>('0:00:58.880000', '0:01:01.680000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:09.940000', '0:00:12.020000')]</t>
+          <t>('0:00:29.340000', '0:00:39.820000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.88</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=9.94']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=29.34</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
